--- a/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>71.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.35</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.54</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.25</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.76</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.21</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80.22</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501022</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.96</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>090001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>大成价值增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.21</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.47</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.95</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -762,25 +862,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501022</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.61</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090001</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成价值增长混合</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>66.23</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,476 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1446,4 +1447,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1921,4 +1922,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1930,7 +1931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1941,17 +1942,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1961,14 +1982,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.99</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5871</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1977,14 +2020,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.16</v>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1993,14 +2058,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="5">
@@ -2009,13 +2096,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2405,7 +2406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2416,17 +2417,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2436,14 +2457,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.3</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2452,14 +2495,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.99</v>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2468,14 +2533,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.16</v>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2484,14 +2571,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.38</v>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2500,13 +2609,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2918,7 +2919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2929,17 +2930,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2949,14 +2970,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.16</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2965,14 +3008,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.3</v>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0661</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2981,14 +3046,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.99</v>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2997,14 +3084,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.16</v>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5800</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3013,14 +3122,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.38</v>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3029,13 +3160,1095 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4664</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4408</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,281 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成价值增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8300</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000219</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时裕益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2945</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1748</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0521</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501022</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0335</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+      <c r="D7" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -741,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -802,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.49</t>
+          <t>13.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.23</t>
+          <t>70.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7451</t>
+          <t>1.1546</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -830,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>519035</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>富国天博创新混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2237</t>
+          <t>1.0661</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -868,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>22.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.21</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2136</t>
+          <t>0.7669</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -906,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>010694</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>万家内需增长一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>16.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1604</t>
+          <t>0.5800</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -944,36 +808,986 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501022</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.61</t>
+          <t>90.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.4762</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4664</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4408</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +1801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,7 +1822,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1048,22 +1862,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.03</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.99</t>
+          <t>61.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5776</t>
+          <t>1.2496</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1076,36 +1890,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>213003</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈策略增长混合</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.21</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>77.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9187</t>
+          <t>0.4663</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1114,36 +1928,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>213003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>宝盈策略增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8127</t>
+          <t>0.4451</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1152,32 +1966,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>012262</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>华宝可持续发展混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>16.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>66.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3858</t>
+          <t>0.4015</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1190,36 +2004,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>012263</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>华宝可持续发展混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>66.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1368</t>
+          <t>0.1592</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1228,36 +2042,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.83</t>
+          <t>77.14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1442</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1276,26 +2090,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>89.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1250</t>
+          <t>0.0805</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1304,36 +2118,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>91.51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0668</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1342,36 +2156,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>34.36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.0636</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1380,32 +2194,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011027</t>
+          <t>010828</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合A</t>
+          <t>国寿安保稳悦混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30.53</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0555</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1418,34 +2232,74 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011028</t>
+          <t>010829</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合C</t>
+          <t>国寿安保稳悦混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30.53</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +2334,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1520,26 +2374,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.17</t>
+          <t>75.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1838</t>
+          <t>1.5871</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1558,26 +2412,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1366</t>
+          <t>0.9904</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1586,36 +2440,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7113</t>
+          <t>0.5799</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1624,32 +2478,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.46</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4406</t>
+          <t>0.4023</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1672,26 +2526,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.47</t>
+          <t>87.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1799</t>
+          <t>0.2413</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1710,26 +2564,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.61</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1394</t>
+          <t>0.1793</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1753,21 +2607,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0947</t>
+          <t>0.1262</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1776,36 +2630,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>011027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>国寿安保稳弘混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38.41</t>
+          <t>31.83</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1814,36 +2668,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>010828</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>国寿安保稳悦混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>22.09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0689</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1852,36 +2706,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011442</t>
+          <t>011028</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信鑫瑞混合A</t>
+          <t>国寿安保稳弘混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>38.23</t>
+          <t>31.83</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0365</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1890,36 +2744,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011443</t>
+          <t>010829</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信鑫瑞混合C</t>
+          <t>国寿安保稳悦混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>38.23</t>
+          <t>22.09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +2808,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1994,26 +2848,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.65</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.95</t>
+          <t>71.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5871</t>
+          <t>1.1838</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2032,26 +2886,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.48</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>90.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9904</t>
+          <t>1.1366</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2060,36 +2914,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5799</t>
+          <t>0.7113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2098,32 +2952,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>84.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4023</t>
+          <t>0.4406</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2146,26 +3000,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.07</t>
+          <t>88.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2413</t>
+          <t>0.1799</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2184,26 +3038,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>80.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1793</t>
+          <t>0.1394</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2227,21 +3081,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1262</t>
+          <t>0.0947</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2250,36 +3104,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011027</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合A</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31.83</t>
+          <t>38.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0709</t>
+          <t>0.0880</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2288,36 +3142,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010828</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国寿安保稳悦混合A</t>
+          <t>东吴阿尔法灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22.09</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0689</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2326,36 +3180,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011028</t>
+          <t>011442</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合C</t>
+          <t>创金合信鑫瑞混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31.83</t>
+          <t>38.23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0365</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2364,36 +3218,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010829</t>
+          <t>011443</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保稳悦混合C</t>
+          <t>创金合信鑫瑞混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22.09</t>
+          <t>38.23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2407,7 +3261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2428,7 +3282,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2468,22 +3322,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.65</t>
+          <t>18.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>61.32</t>
+          <t>72.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2496</t>
+          <t>1.5776</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2496,36 +3350,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>213003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>宝盈策略增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>15.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.57</t>
+          <t>87.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4663</t>
+          <t>0.9187</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2534,36 +3388,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>213003</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈策略增长混合</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>92.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4451</t>
+          <t>0.8127</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2572,32 +3426,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012262</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝可持续发展混合A</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>66.51</t>
+          <t>91.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4015</t>
+          <t>0.3858</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2610,36 +3464,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012263</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝可持续发展混合C</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>66.51</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1592</t>
+          <t>0.1368</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2648,36 +3502,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>168002</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.14</t>
+          <t>84.83</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1442</t>
+          <t>0.1346</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2696,26 +3550,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0805</t>
+          <t>0.1250</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2724,36 +3578,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.51</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0668</t>
+          <t>0.0285</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2762,36 +3616,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>东吴阿尔法灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0636</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2800,32 +3654,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010828</t>
+          <t>011027</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保稳悦混合A</t>
+          <t>国寿安保稳弘混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20.99</t>
+          <t>30.53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0555</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2838,74 +3692,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010829</t>
+          <t>011028</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保稳悦混合C</t>
+          <t>国寿安保稳弘混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>20.99</t>
+          <t>30.53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004284</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝新优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>38.91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2919,7 +3733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2940,7 +3754,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2980,26 +3794,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.41</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.17</t>
+          <t>66.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1546</t>
+          <t>0.7451</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3008,36 +3822,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519035</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国天博创新混合</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0661</t>
+          <t>0.2237</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3046,36 +3860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>82.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7669</t>
+          <t>0.2136</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3084,36 +3898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010694</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家内需增长一年持有期混合</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5800</t>
+          <t>0.1604</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3122,986 +3936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>83.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4762</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012262</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝可持续发展混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15.65</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.17</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4664</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000513</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4408</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010611</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家战略发展产业混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4080</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002770</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3659</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011921</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国均衡成长三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3550</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3036</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008138</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2745</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009989</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝研究精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2325</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2024</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>80.79</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1937</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>012263</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华宝可持续发展混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>79.17</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1755</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006233</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1717</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>580008</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>东吴新产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1664</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011470</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东吴新产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1664</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010612</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>万家战略发展产业混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1612</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002771</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>83.63</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1402</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0916</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010033</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>安信成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>85.93</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0780</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>519644</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>银河智联主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0669</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0480</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>200001</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>长城久恒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011922</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>富国均衡成长三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010034</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>安信成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>85.93</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>014930</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>富国高端制造行业股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4115,144 +3979,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.619999999999999</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.16</v>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.3</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.99</v>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.16</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.4</v>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
-        <v>8.619999999999999</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>3.16</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>4.3</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>3.99</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>4.16</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.38</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -600,6 +617,2380 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1605</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1344</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0926</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9894</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7938</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6973</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6973</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6933</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5881</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5631</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5272</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4608</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3960</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中加科鑫混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中加科鑫混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1795,7 +4186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2300,480 +4691,6 @@
       </c>
       <c r="H13" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>090001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成价值增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5871</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>213003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈策略增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9904</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002148</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国寿安保稳惠灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5799</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>213002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>宝盈泛沿海增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4023</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2413</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1793</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>580008</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东吴新产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1262</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011027</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国寿安保稳弘混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>31.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010828</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国寿安保稳悦混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>22.09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0689</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011028</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国寿安保稳弘混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>31.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010829</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国寿安保稳悦混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>22.09</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +4725,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2848,26 +4765,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.17</t>
+          <t>75.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1838</t>
+          <t>1.5871</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2886,26 +4803,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1366</t>
+          <t>0.9904</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2914,36 +4831,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7113</t>
+          <t>0.5799</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2952,32 +4869,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.46</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4406</t>
+          <t>0.4023</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3000,26 +4917,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.47</t>
+          <t>87.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1799</t>
+          <t>0.2413</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3038,26 +4955,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.61</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1394</t>
+          <t>0.1793</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -3081,21 +4998,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0947</t>
+          <t>0.1262</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -3104,36 +5021,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>011027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>国寿安保稳弘混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38.41</t>
+          <t>31.83</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -3142,36 +5059,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>010828</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>国寿安保稳悦混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>22.09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0689</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -3180,36 +5097,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011442</t>
+          <t>011028</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信鑫瑞混合A</t>
+          <t>国寿安保稳弘混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>38.23</t>
+          <t>31.83</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0365</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3218,36 +5135,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011443</t>
+          <t>010829</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信鑫瑞混合C</t>
+          <t>国寿安保稳悦混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>38.23</t>
+          <t>22.09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3322,26 +5239,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.03</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.99</t>
+          <t>71.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5776</t>
+          <t>1.1838</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3360,26 +5277,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.21</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>90.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9187</t>
+          <t>1.1366</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3398,26 +5315,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8127</t>
+          <t>0.7113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3426,36 +5343,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>84.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3858</t>
+          <t>0.4406</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3464,36 +5381,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>88.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1368</t>
+          <t>0.1799</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3502,36 +5419,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.83</t>
+          <t>80.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1394</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -3550,26 +5467,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1250</t>
+          <t>0.0947</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3578,36 +5495,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>38.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0880</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3626,26 +5543,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -3654,36 +5571,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011027</t>
+          <t>011442</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合A</t>
+          <t>创金合信鑫瑞混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30.53</t>
+          <t>38.23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3692,34 +5609,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011028</t>
+          <t>011443</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合C</t>
+          <t>创金合信鑫瑞混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30.53</t>
+          <t>38.23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3728,6 +5647,478 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3973,7 +6364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300487-蓝晓科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>18.56</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>8.619999999999999</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>3.16</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>4.3</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>3.99</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>4.16</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>1.38</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -616,7 +633,2247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8405</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0443</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9957</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5509</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014788</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4913</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4231</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3839</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3810</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3691</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015127</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015128</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014789</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>48.29</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014668</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014669</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2990,7 +5247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4186,7 +6443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4691,480 +6948,6 @@
       </c>
       <c r="H13" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>090001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成价值增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5871</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>213003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈策略增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9904</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002148</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国寿安保稳惠灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5799</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>213002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>宝盈泛沿海增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4023</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2413</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1793</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>580008</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东吴新产业精选股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1262</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011027</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国寿安保稳弘混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>31.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010828</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国寿安保稳悦混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>22.09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0689</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011028</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国寿安保稳弘混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>31.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010829</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国寿安保稳悦混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>22.09</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5199,7 +6982,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -5239,26 +7022,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.68</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.17</t>
+          <t>75.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1838</t>
+          <t>1.5871</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5277,26 +7060,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1366</t>
+          <t>0.9904</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5305,36 +7088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7113</t>
+          <t>0.5799</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5343,32 +7126,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.46</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4406</t>
+          <t>0.4023</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -5391,26 +7174,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.47</t>
+          <t>87.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1799</t>
+          <t>0.2413</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -5429,26 +7212,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.61</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1394</t>
+          <t>0.1793</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -5472,21 +7255,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0947</t>
+          <t>0.1262</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -5495,36 +7278,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>011027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>国寿安保稳弘混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38.41</t>
+          <t>31.83</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -5533,36 +7316,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>010828</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>国寿安保稳悦混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>22.09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0689</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -5571,36 +7354,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011442</t>
+          <t>011028</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信鑫瑞混合A</t>
+          <t>国寿安保稳弘混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>38.23</t>
+          <t>31.83</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0365</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -5609,36 +7392,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011443</t>
+          <t>010829</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信鑫瑞混合C</t>
+          <t>国寿安保稳悦混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>38.23</t>
+          <t>22.09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5713,26 +7496,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.03</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.99</t>
+          <t>71.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5776</t>
+          <t>1.1838</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5751,26 +7534,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.21</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>90.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9187</t>
+          <t>1.1366</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5789,26 +7572,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8127</t>
+          <t>0.7113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5817,36 +7600,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>84.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3858</t>
+          <t>0.4406</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5855,36 +7638,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>88.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1368</t>
+          <t>0.1799</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5893,36 +7676,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.83</t>
+          <t>80.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1394</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -5941,26 +7724,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1250</t>
+          <t>0.0947</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -5969,36 +7752,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>38.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0880</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -6017,26 +7800,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -6045,36 +7828,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011027</t>
+          <t>011442</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合A</t>
+          <t>创金合信鑫瑞混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30.53</t>
+          <t>38.23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -6083,34 +7866,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011028</t>
+          <t>011443</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保稳弘混合C</t>
+          <t>创金合信鑫瑞混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30.53</t>
+          <t>38.23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6119,6 +7904,478 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6362,288 +8619,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>090001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成价值增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8300</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000219</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时裕益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2945</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1748</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0521</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501022</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0335</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>